--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,28 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ricky/Documents/PythonWorkspace/TestFramework/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selenium</t>
+    <t>expection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小哥哥</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'ge'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小姐姐</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'jei'j'ei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello world</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -30,15 +62,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小姐姐</t>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +119,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -133,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,9 +202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,6 +237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,33 +413,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -411,12 +465,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -425,12 +479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
